--- a/scripts Stata/Atual/EvolucaoLegNE.xlsx
+++ b/scripts Stata/Atual/EvolucaoLegNE.xlsx
@@ -8,28 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06E765F7-0DCA-416A-87DA-DF42B40C5322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3CE5D4-3609-4BA3-997A-BC6A9194936D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5430" yWindow="1455" windowWidth="18870" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DadosTeses" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DadosTeses!$A$1:$D$321</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -161,12 +166,6 @@
   </si>
   <si>
     <t>QUALICORP</t>
-  </si>
-  <si>
-    <t>ANO</t>
-  </si>
-  <si>
-    <t>LEGNE</t>
   </si>
 </sst>
 </file>
@@ -304,14 +303,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>eVOLUÇÃO</a:t>
+              <a:rPr lang="pt-BR" sz="1200" b="0" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Evolução do Índice de Legibilidade das Notas Explicativas ao longo dos anos</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> DO LEGnE</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1531,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6137,94 +6137,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B2" s="4">
-        <v>31.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2011</v>
-      </c>
-      <c r="B3" s="4">
-        <v>34.325000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2012</v>
-      </c>
-      <c r="B4" s="4">
-        <v>33.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>2013</v>
-      </c>
-      <c r="B5" s="4">
-        <v>31.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>2014</v>
-      </c>
-      <c r="B6" s="4">
-        <v>32.225000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>2015</v>
-      </c>
-      <c r="B7" s="4">
-        <v>32.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>2016</v>
-      </c>
-      <c r="B8" s="4">
-        <v>34.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>2017</v>
-      </c>
-      <c r="B9" s="4">
-        <v>36.274999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/scripts Stata/Atual/EvolucaoLegNE.xlsx
+++ b/scripts Stata/Atual/EvolucaoLegNE.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3CE5D4-3609-4BA3-997A-BC6A9194936D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3702D73-977D-4EC4-9B22-204ECBB460D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="1455" windowWidth="18870" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DadosTeses" sheetId="1" r:id="rId1"/>
+    <sheet name="regress" sheetId="7" r:id="rId2"/>
+    <sheet name="Tendência" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DadosTeses!$A$1:$D$321</definedName>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -167,12 +169,72 @@
   <si>
     <t>QUALICORP</t>
   </si>
+  <si>
+    <t>27.75</t>
+  </si>
+  <si>
+    <t>28.55</t>
+  </si>
+  <si>
+    <t>28.59</t>
+  </si>
+  <si>
+    <t>28.67</t>
+  </si>
+  <si>
+    <t>28.72</t>
+  </si>
+  <si>
+    <t>28.61</t>
+  </si>
+  <si>
+    <t>29.33</t>
+  </si>
+  <si>
+    <t>29.81</t>
+  </si>
+  <si>
+    <t>_cons</t>
+  </si>
+  <si>
+    <t>Intervalo de Confiança 95%</t>
+  </si>
+  <si>
+    <t>p-valor</t>
+  </si>
+  <si>
+    <t>Estat. t</t>
+  </si>
+  <si>
+    <t>Erro Padrão Robusto</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Variáveis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelo de Regressão </t>
+  </si>
+  <si>
+    <t>ANO</t>
+  </si>
+  <si>
+    <t>4,78</t>
+  </si>
+  <si>
+    <t>-4,47</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +249,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -209,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -217,11 +292,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -240,7 +326,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -272,90 +386,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
-                <a:gradFill>
-                  <a:gsLst>
-                    <a:gs pos="0">
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="100000">
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="85000"/>
-                        <a:lumOff val="15000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                  </a:gsLst>
-                  <a:lin ang="5400000" scaled="0"/>
-                </a:gradFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1200" b="0" cap="none" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Evolução do Índice de Legibilidade das Notas Explicativas ao longo dos anos</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="85000"/>
-                      <a:lumOff val="15000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -478,33 +509,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DadosTeses!$F$2:$M$2</c:f>
+              <c:f>DadosTeses!$F$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>31.7</c:v>
+                  <c:v>27.754854570524071</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.325000000000003</c:v>
+                  <c:v>28.554905613285076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.1</c:v>
+                  <c:v>28.590213253915845</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.8</c:v>
+                  <c:v>28.667303713013858</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.225000000000001</c:v>
+                  <c:v>28.717612142007464</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.9</c:v>
+                  <c:v>28.608580527444683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.1</c:v>
+                  <c:v>29.32978044229592</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.274999999999999</c:v>
+                  <c:v>29.806749887539365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1201,10 +1232,10 @@
       <xdr:rowOff>147636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1227,6 +1258,391 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6200775" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CaixaDeTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B92D0A-A51D-459E-993B-0B09E42E980B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10620375" y="4143375"/>
+          <a:ext cx="6200775" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>De acordo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> com os resultado obtidos na na regressão liner simples não foi possível constar sig. para o modelo. p &gt; 0,132.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6200775" cy="1470146"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CaixaDeTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22567900-1C19-4563-A80E-28B6524E0253}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4124325" y="4210050"/>
+          <a:ext cx="6200775" cy="1470146"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Verificar se a curva</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> de inclinção ( coef. inclinação) é estatisticamente diferente de zero. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>Em caso positivo eu poderia dizer que para os próximos anos a tendência seria aumentar o LegNE.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>Ou ainda e poderia tentar um teste para mostrar tedência por meio da aplicação de técnicas de séries temporais.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>https://www.monolitonimbus.com.br/tendencia-e-sazonalidade/</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>563562</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>724705</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{921B69D7-3443-4E9E-B4A5-2015CC7C4A35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10469562" y="1063625"/>
+          <a:ext cx="6257143" cy="2780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>357993</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>113952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{131FA701-ABE5-4119-BA1F-AF941340FD0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="1289050"/>
+          <a:ext cx="4923643" cy="2780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>548309</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14492</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5095875" cy="1400177"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CaixaDeTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{850AE532-22DF-4308-9B14-A3DEFAC63E47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7290352" y="395492"/>
+          <a:ext cx="5095875" cy="1400177"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Modelo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> não foi estatisticamente significante para nenhum dos testes analisados.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Minha sugestão seria em fazer o modelo por meio de um descritiva mesmo.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>240196</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>530114</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>170570</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F90DF1-31D7-40AA-8579-410D84C898AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="240196" y="66261"/>
+          <a:ext cx="6419048" cy="3723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1531,13 +1947,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1588,33 +2005,17 @@
       <c r="C2" s="4">
         <v>2017</v>
       </c>
-      <c r="D2" s="4">
-        <v>32</v>
-      </c>
-      <c r="F2" s="8">
-        <v>31.7</v>
-      </c>
-      <c r="G2" s="8">
-        <v>34.325000000000003</v>
-      </c>
-      <c r="H2" s="8">
-        <v>33.1</v>
-      </c>
-      <c r="I2" s="8">
-        <v>31.8</v>
-      </c>
-      <c r="J2" s="8">
-        <v>32.225000000000001</v>
-      </c>
-      <c r="K2" s="8">
-        <v>32.9</v>
-      </c>
-      <c r="L2" s="8">
-        <v>34.1</v>
-      </c>
-      <c r="M2" s="8">
-        <v>36.274999999999999</v>
-      </c>
+      <c r="D2" s="10">
+        <v>26.473684210526315</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -1626,8 +2027,32 @@
       <c r="C3" s="4">
         <v>2016</v>
       </c>
-      <c r="D3" s="4">
-        <v>28</v>
+      <c r="D3" s="10">
+        <v>24.888888888888889</v>
+      </c>
+      <c r="F3" s="10">
+        <v>27.754854570524071</v>
+      </c>
+      <c r="G3" s="10">
+        <v>28.554905613285076</v>
+      </c>
+      <c r="H3" s="10">
+        <v>28.590213253915845</v>
+      </c>
+      <c r="I3" s="10">
+        <v>28.667303713013858</v>
+      </c>
+      <c r="J3" s="10">
+        <v>28.717612142007464</v>
+      </c>
+      <c r="K3" s="10">
+        <v>28.608580527444683</v>
+      </c>
+      <c r="L3" s="10">
+        <v>29.32978044229592</v>
+      </c>
+      <c r="M3" s="10">
+        <v>29.806749887539365</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1640,8 +2065,8 @@
       <c r="C4" s="4">
         <v>2015</v>
       </c>
-      <c r="D4" s="4">
-        <v>28</v>
+      <c r="D4" s="10">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1654,8 +2079,8 @@
       <c r="C5" s="4">
         <v>2014</v>
       </c>
-      <c r="D5" s="4">
-        <v>29</v>
+      <c r="D5" s="10">
+        <v>27.105263157894736</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1668,8 +2093,8 @@
       <c r="C6" s="4">
         <v>2013</v>
       </c>
-      <c r="D6" s="4">
-        <v>28</v>
+      <c r="D6" s="10">
+        <v>26.210526315789473</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1682,8 +2107,8 @@
       <c r="C7" s="4">
         <v>2012</v>
       </c>
-      <c r="D7" s="4">
-        <v>25</v>
+      <c r="D7" s="10">
+        <v>23.588235294117649</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1696,8 +2121,8 @@
       <c r="C8" s="4">
         <v>2011</v>
       </c>
-      <c r="D8" s="4">
-        <v>21</v>
+      <c r="D8" s="10">
+        <v>23.5</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1710,8 +2135,8 @@
       <c r="C9" s="4">
         <v>2010</v>
       </c>
-      <c r="D9" s="4">
-        <v>17</v>
+      <c r="D9" s="10">
+        <v>25.25</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1724,8 +2149,8 @@
       <c r="C10" s="5">
         <v>2017</v>
       </c>
-      <c r="D10" s="4">
-        <v>21</v>
+      <c r="D10" s="10">
+        <v>28.789473684210527</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1738,8 +2163,8 @@
       <c r="C11" s="4">
         <v>2016</v>
       </c>
-      <c r="D11" s="4">
-        <v>21</v>
+      <c r="D11" s="10">
+        <v>28.789473684210527</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1752,8 +2177,8 @@
       <c r="C12" s="4">
         <v>2015</v>
       </c>
-      <c r="D12" s="4">
-        <v>25</v>
+      <c r="D12" s="10">
+        <v>27.94736842105263</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1766,8 +2191,8 @@
       <c r="C13" s="4">
         <v>2014</v>
       </c>
-      <c r="D13" s="4">
-        <v>41</v>
+      <c r="D13" s="10">
+        <v>27.368421052631579</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1780,8 +2205,8 @@
       <c r="C14" s="4">
         <v>2013</v>
       </c>
-      <c r="D14" s="4">
-        <v>42</v>
+      <c r="D14" s="10">
+        <v>28.631578947368421</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1794,8 +2219,8 @@
       <c r="C15" s="4">
         <v>2012</v>
       </c>
-      <c r="D15" s="4">
-        <v>43</v>
+      <c r="D15" s="10">
+        <v>28.894736842105264</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1808,11 +2233,11 @@
       <c r="C16" s="4">
         <v>2011</v>
       </c>
-      <c r="D16" s="4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="10">
+        <v>28.789473684210527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2</v>
       </c>
@@ -1822,11 +2247,11 @@
       <c r="C17" s="4">
         <v>2010</v>
       </c>
-      <c r="D17" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="10">
+        <v>26.894736842105264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -1836,11 +2261,11 @@
       <c r="C18" s="4">
         <v>2017</v>
       </c>
-      <c r="D18" s="4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="10">
+        <v>31.916666666666668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>3</v>
       </c>
@@ -1850,11 +2275,11 @@
       <c r="C19" s="4">
         <v>2016</v>
       </c>
-      <c r="D19" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="10">
+        <v>28.923076923076923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>3</v>
       </c>
@@ -1864,11 +2289,11 @@
       <c r="C20" s="4">
         <v>2015</v>
       </c>
-      <c r="D20" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="10">
+        <v>27.272727272727273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>3</v>
       </c>
@@ -1878,11 +2303,11 @@
       <c r="C21" s="4">
         <v>2014</v>
       </c>
-      <c r="D21" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="10">
+        <v>29.636363636363637</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>3</v>
       </c>
@@ -1892,11 +2317,11 @@
       <c r="C22" s="4">
         <v>2013</v>
       </c>
-      <c r="D22" s="4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="10">
+        <v>29.727272727272727</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>3</v>
       </c>
@@ -1906,11 +2331,11 @@
       <c r="C23" s="4">
         <v>2012</v>
       </c>
-      <c r="D23" s="4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="10">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>3</v>
       </c>
@@ -1920,11 +2345,11 @@
       <c r="C24" s="4">
         <v>2011</v>
       </c>
-      <c r="D24" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="10">
+        <v>28.46153846153846</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>3</v>
       </c>
@@ -1934,11 +2359,11 @@
       <c r="C25" s="4">
         <v>2010</v>
       </c>
-      <c r="D25" s="4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="10">
+        <v>28.071428571428573</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>4</v>
       </c>
@@ -1948,11 +2373,11 @@
       <c r="C26" s="4">
         <v>2017</v>
       </c>
-      <c r="D26" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="10">
+        <v>27.166666666666668</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>4</v>
       </c>
@@ -1962,11 +2387,11 @@
       <c r="C27" s="4">
         <v>2016</v>
       </c>
-      <c r="D27" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="10">
+        <v>30.833333333333332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>4</v>
       </c>
@@ -1976,11 +2401,11 @@
       <c r="C28" s="4">
         <v>2015</v>
       </c>
-      <c r="D28" s="4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="10">
+        <v>33.166666666666664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>4</v>
       </c>
@@ -1990,11 +2415,11 @@
       <c r="C29" s="4">
         <v>2014</v>
       </c>
-      <c r="D29" s="4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="10">
+        <v>28.666666666666668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>4</v>
       </c>
@@ -2004,11 +2429,11 @@
       <c r="C30" s="4">
         <v>2013</v>
       </c>
-      <c r="D30" s="4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="10">
+        <v>30.846153846153847</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>4</v>
       </c>
@@ -2018,11 +2443,14 @@
       <c r="C31" s="4">
         <v>2012</v>
       </c>
-      <c r="D31" s="4">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="10">
+        <v>25.615384615384617</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>4</v>
       </c>
@@ -2032,11 +2460,14 @@
       <c r="C32" s="4">
         <v>2011</v>
       </c>
-      <c r="D32" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="10">
+        <v>31.615384615384617</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>4</v>
       </c>
@@ -2046,11 +2477,14 @@
       <c r="C33" s="4">
         <v>2010</v>
       </c>
-      <c r="D33" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="10">
+        <v>31.76923076923077</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>5</v>
       </c>
@@ -2060,11 +2494,14 @@
       <c r="C34" s="4">
         <v>2017</v>
       </c>
-      <c r="D34" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="10">
+        <v>37</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>5</v>
       </c>
@@ -2074,11 +2511,14 @@
       <c r="C35" s="4">
         <v>2016</v>
       </c>
-      <c r="D35" s="4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="10">
+        <v>35.375</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>5</v>
       </c>
@@ -2088,11 +2528,14 @@
       <c r="C36" s="4">
         <v>2015</v>
       </c>
-      <c r="D36" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="10">
+        <v>36.5</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>5</v>
       </c>
@@ -2102,11 +2545,14 @@
       <c r="C37" s="4">
         <v>2014</v>
       </c>
-      <c r="D37" s="4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="10">
+        <v>36.75</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>5</v>
       </c>
@@ -2116,11 +2562,14 @@
       <c r="C38" s="4">
         <v>2013</v>
       </c>
-      <c r="D38" s="4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="10">
+        <v>32.125</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>5</v>
       </c>
@@ -2130,11 +2579,11 @@
       <c r="C39" s="4">
         <v>2012</v>
       </c>
-      <c r="D39" s="4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="10">
+        <v>32.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>5</v>
       </c>
@@ -2144,11 +2593,11 @@
       <c r="C40" s="4">
         <v>2011</v>
       </c>
-      <c r="D40" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="10">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>5</v>
       </c>
@@ -2158,11 +2607,11 @@
       <c r="C41" s="4">
         <v>2010</v>
       </c>
-      <c r="D41" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="10">
+        <v>31.333333333333332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>6</v>
       </c>
@@ -2172,11 +2621,11 @@
       <c r="C42" s="4">
         <v>2017</v>
       </c>
-      <c r="D42" s="4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="10">
+        <v>30.083333333333332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>6</v>
       </c>
@@ -2186,11 +2635,11 @@
       <c r="C43" s="4">
         <v>2016</v>
       </c>
-      <c r="D43" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="10">
+        <v>30.384615384615383</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>6</v>
       </c>
@@ -2200,11 +2649,11 @@
       <c r="C44" s="4">
         <v>2015</v>
       </c>
-      <c r="D44" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="10">
+        <v>26.76923076923077</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>6</v>
       </c>
@@ -2214,11 +2663,11 @@
       <c r="C45" s="4">
         <v>2014</v>
       </c>
-      <c r="D45" s="4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="10">
+        <v>28.76923076923077</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>6</v>
       </c>
@@ -2228,11 +2677,11 @@
       <c r="C46" s="4">
         <v>2013</v>
       </c>
-      <c r="D46" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="10">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>6</v>
       </c>
@@ -2242,11 +2691,11 @@
       <c r="C47" s="4">
         <v>2012</v>
       </c>
-      <c r="D47" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="10">
+        <v>29.785714285714285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>6</v>
       </c>
@@ -2256,8 +2705,8 @@
       <c r="C48" s="4">
         <v>2011</v>
       </c>
-      <c r="D48" s="4">
-        <v>36</v>
+      <c r="D48" s="10">
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2270,8 +2719,8 @@
       <c r="C49" s="4">
         <v>2010</v>
       </c>
-      <c r="D49" s="4">
-        <v>39</v>
+      <c r="D49" s="10">
+        <v>32.5</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2284,8 +2733,8 @@
       <c r="C50" s="4">
         <v>2017</v>
       </c>
-      <c r="D50" s="4">
-        <v>15</v>
+      <c r="D50" s="10">
+        <v>26.615384615384617</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2298,8 +2747,8 @@
       <c r="C51" s="4">
         <v>2016</v>
       </c>
-      <c r="D51" s="4">
-        <v>20</v>
+      <c r="D51" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2312,8 +2761,8 @@
       <c r="C52" s="4">
         <v>2015</v>
       </c>
-      <c r="D52" s="4">
-        <v>30</v>
+      <c r="D52" s="10">
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2326,8 +2775,8 @@
       <c r="C53" s="4">
         <v>2014</v>
       </c>
-      <c r="D53" s="4">
-        <v>32</v>
+      <c r="D53" s="10">
+        <v>29.307692307692307</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2340,8 +2789,8 @@
       <c r="C54" s="4">
         <v>2013</v>
       </c>
-      <c r="D54" s="4">
-        <v>32</v>
+      <c r="D54" s="10">
+        <v>29.583333333333332</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2354,8 +2803,8 @@
       <c r="C55" s="4">
         <v>2012</v>
       </c>
-      <c r="D55" s="4">
-        <v>33</v>
+      <c r="D55" s="10">
+        <v>26.833333333333332</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2368,8 +2817,8 @@
       <c r="C56" s="4">
         <v>2011</v>
       </c>
-      <c r="D56" s="4">
-        <v>33</v>
+      <c r="D56" s="10">
+        <v>30.083333333333332</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2382,8 +2831,8 @@
       <c r="C57" s="4">
         <v>2010</v>
       </c>
-      <c r="D57" s="4">
-        <v>22</v>
+      <c r="D57" s="10">
+        <v>27.333333333333332</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2396,8 +2845,8 @@
       <c r="C58" s="4">
         <v>2017</v>
       </c>
-      <c r="D58" s="4">
-        <v>42</v>
+      <c r="D58" s="10">
+        <v>34.5</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2410,8 +2859,8 @@
       <c r="C59" s="4">
         <v>2016</v>
       </c>
-      <c r="D59" s="4">
-        <v>29</v>
+      <c r="D59" s="10">
+        <v>33.466666666666669</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2424,8 +2873,8 @@
       <c r="C60" s="4">
         <v>2015</v>
       </c>
-      <c r="D60" s="4">
-        <v>30</v>
+      <c r="D60" s="10">
+        <v>29.066666666666666</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2438,8 +2887,8 @@
       <c r="C61" s="4">
         <v>2014</v>
       </c>
-      <c r="D61" s="4">
-        <v>17</v>
+      <c r="D61" s="10">
+        <v>30.46153846153846</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2452,8 +2901,8 @@
       <c r="C62" s="4">
         <v>2013</v>
       </c>
-      <c r="D62" s="4">
-        <v>19</v>
+      <c r="D62" s="10">
+        <v>31.066666666666666</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2466,8 +2915,8 @@
       <c r="C63" s="4">
         <v>2012</v>
       </c>
-      <c r="D63" s="4">
-        <v>12</v>
+      <c r="D63" s="10">
+        <v>35.916666666666664</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2480,8 +2929,8 @@
       <c r="C64" s="4">
         <v>2011</v>
       </c>
-      <c r="D64" s="4">
-        <v>12</v>
+      <c r="D64" s="10">
+        <v>34.727272727272727</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2494,8 +2943,8 @@
       <c r="C65" s="4">
         <v>2010</v>
       </c>
-      <c r="D65" s="4">
-        <v>12</v>
+      <c r="D65" s="10">
+        <v>23.555555555555557</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2508,8 +2957,8 @@
       <c r="C66" s="4">
         <v>2017</v>
       </c>
-      <c r="D66" s="4">
-        <v>41</v>
+      <c r="D66" s="10">
+        <v>29.636363636363637</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2522,8 +2971,8 @@
       <c r="C67" s="4">
         <v>2016</v>
       </c>
-      <c r="D67" s="4">
-        <v>50</v>
+      <c r="D67" s="10">
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2536,8 +2985,8 @@
       <c r="C68" s="4">
         <v>2015</v>
       </c>
-      <c r="D68" s="4">
-        <v>0</v>
+      <c r="D68" s="10">
+        <v>21.1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2550,8 +2999,8 @@
       <c r="C69" s="4">
         <v>2014</v>
       </c>
-      <c r="D69" s="4">
-        <v>0</v>
+      <c r="D69" s="10">
+        <v>23.818181818181817</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2564,8 +3013,8 @@
       <c r="C70" s="4">
         <v>2013</v>
       </c>
-      <c r="D70" s="4">
-        <v>0</v>
+      <c r="D70" s="10">
+        <v>20.23076923076923</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2578,8 +3027,8 @@
       <c r="C71" s="4">
         <v>2012</v>
       </c>
-      <c r="D71" s="4">
-        <v>50</v>
+      <c r="D71" s="10">
+        <v>28.384615384615383</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2592,8 +3041,8 @@
       <c r="C72" s="4">
         <v>2011</v>
       </c>
-      <c r="D72" s="4">
-        <v>50</v>
+      <c r="D72" s="10">
+        <v>27.071428571428573</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2606,8 +3055,8 @@
       <c r="C73" s="4">
         <v>2010</v>
       </c>
-      <c r="D73" s="4">
-        <v>9</v>
+      <c r="D73" s="10">
+        <v>22.153846153846153</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2620,8 +3069,8 @@
       <c r="C74" s="4">
         <v>2017</v>
       </c>
-      <c r="D74" s="4">
-        <v>42</v>
+      <c r="D74" s="10">
+        <v>27.235294117647058</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2634,8 +3083,8 @@
       <c r="C75" s="4">
         <v>2016</v>
       </c>
-      <c r="D75" s="4">
-        <v>19</v>
+      <c r="D75" s="10">
+        <v>24.470588235294116</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2648,8 +3097,8 @@
       <c r="C76" s="4">
         <v>2015</v>
       </c>
-      <c r="D76" s="4">
-        <v>19</v>
+      <c r="D76" s="10">
+        <v>21.176470588235293</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2662,8 +3111,8 @@
       <c r="C77" s="4">
         <v>2014</v>
       </c>
-      <c r="D77" s="4">
-        <v>15</v>
+      <c r="D77" s="10">
+        <v>20.6875</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2676,8 +3125,8 @@
       <c r="C78" s="4">
         <v>2013</v>
       </c>
-      <c r="D78" s="4">
-        <v>21</v>
+      <c r="D78" s="10">
+        <v>19.4375</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2690,8 +3139,8 @@
       <c r="C79" s="4">
         <v>2012</v>
       </c>
-      <c r="D79" s="4">
-        <v>6</v>
+      <c r="D79" s="10">
+        <v>18.3125</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2704,8 +3153,8 @@
       <c r="C80" s="4">
         <v>2011</v>
       </c>
-      <c r="D80" s="4">
-        <v>15</v>
+      <c r="D80" s="10">
+        <v>21.125</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2718,8 +3167,8 @@
       <c r="C81" s="4">
         <v>2010</v>
       </c>
-      <c r="D81" s="4">
-        <v>6</v>
+      <c r="D81" s="10">
+        <v>20.1875</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2732,8 +3181,8 @@
       <c r="C82" s="4">
         <v>2017</v>
       </c>
-      <c r="D82" s="4">
-        <v>38</v>
+      <c r="D82" s="10">
+        <v>29.666666666666668</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2746,8 +3195,8 @@
       <c r="C83" s="4">
         <v>2016</v>
       </c>
-      <c r="D83" s="4">
-        <v>35</v>
+      <c r="D83" s="10">
+        <v>25.428571428571427</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2760,8 +3209,8 @@
       <c r="C84" s="4">
         <v>2015</v>
       </c>
-      <c r="D84" s="4">
-        <v>31</v>
+      <c r="D84" s="10">
+        <v>22.071428571428573</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2774,8 +3223,8 @@
       <c r="C85" s="4">
         <v>2014</v>
       </c>
-      <c r="D85" s="4">
-        <v>34</v>
+      <c r="D85" s="10">
+        <v>25.714285714285715</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2788,8 +3237,8 @@
       <c r="C86" s="4">
         <v>2013</v>
       </c>
-      <c r="D86" s="4">
-        <v>35</v>
+      <c r="D86" s="10">
+        <v>25.714285714285715</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2802,8 +3251,8 @@
       <c r="C87" s="4">
         <v>2012</v>
       </c>
-      <c r="D87" s="4">
-        <v>39</v>
+      <c r="D87" s="10">
+        <v>24.846153846153847</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2816,8 +3265,8 @@
       <c r="C88" s="4">
         <v>2011</v>
       </c>
-      <c r="D88" s="4">
-        <v>42</v>
+      <c r="D88" s="10">
+        <v>32.92307692307692</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2830,8 +3279,8 @@
       <c r="C89" s="4">
         <v>2010</v>
       </c>
-      <c r="D89" s="4">
-        <v>42</v>
+      <c r="D89" s="10">
+        <v>30.384615384615383</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2844,8 +3293,8 @@
       <c r="C90" s="4">
         <v>2017</v>
       </c>
-      <c r="D90" s="4">
-        <v>38</v>
+      <c r="D90" s="10">
+        <v>27.76923076923077</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2858,8 +3307,8 @@
       <c r="C91" s="4">
         <v>2016</v>
       </c>
-      <c r="D91" s="4">
-        <v>32</v>
+      <c r="D91" s="10">
+        <v>30.384615384615383</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2872,8 +3321,8 @@
       <c r="C92" s="4">
         <v>2015</v>
       </c>
-      <c r="D92" s="4">
-        <v>36</v>
+      <c r="D92" s="10">
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2886,8 +3335,8 @@
       <c r="C93" s="4">
         <v>2014</v>
       </c>
-      <c r="D93" s="4">
-        <v>27</v>
+      <c r="D93" s="10">
+        <v>25.692307692307693</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2900,8 +3349,8 @@
       <c r="C94" s="4">
         <v>2013</v>
       </c>
-      <c r="D94" s="4">
-        <v>33</v>
+      <c r="D94" s="10">
+        <v>28.846153846153847</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2914,8 +3363,8 @@
       <c r="C95" s="4">
         <v>2012</v>
       </c>
-      <c r="D95" s="4">
-        <v>33</v>
+      <c r="D95" s="10">
+        <v>27.846153846153847</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2928,8 +3377,8 @@
       <c r="C96" s="4">
         <v>2011</v>
       </c>
-      <c r="D96" s="4">
-        <v>28</v>
+      <c r="D96" s="10">
+        <v>23.615384615384617</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2942,8 +3391,8 @@
       <c r="C97" s="4">
         <v>2010</v>
       </c>
-      <c r="D97" s="4">
-        <v>22</v>
+      <c r="D97" s="10">
+        <v>24.153846153846153</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2956,8 +3405,8 @@
       <c r="C98" s="4">
         <v>2017</v>
       </c>
-      <c r="D98" s="4">
-        <v>49</v>
+      <c r="D98" s="10">
+        <v>36.117647058823529</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2970,8 +3419,8 @@
       <c r="C99" s="4">
         <v>2016</v>
       </c>
-      <c r="D99" s="4">
-        <v>41</v>
+      <c r="D99" s="10">
+        <v>35.411764705882355</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2984,8 +3433,8 @@
       <c r="C100" s="4">
         <v>2015</v>
       </c>
-      <c r="D100" s="4">
-        <v>42</v>
+      <c r="D100" s="10">
+        <v>35.176470588235297</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2998,8 +3447,8 @@
       <c r="C101" s="4">
         <v>2014</v>
       </c>
-      <c r="D101" s="4">
-        <v>43</v>
+      <c r="D101" s="10">
+        <v>35.705882352941174</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3012,8 +3461,8 @@
       <c r="C102" s="4">
         <v>2013</v>
       </c>
-      <c r="D102" s="4">
-        <v>43</v>
+      <c r="D102" s="10">
+        <v>35.352941176470587</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3026,8 +3475,8 @@
       <c r="C103" s="4">
         <v>2012</v>
       </c>
-      <c r="D103" s="4">
-        <v>45</v>
+      <c r="D103" s="10">
+        <v>31.882352941176471</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3040,8 +3489,8 @@
       <c r="C104" s="4">
         <v>2011</v>
       </c>
-      <c r="D104" s="4">
-        <v>45</v>
+      <c r="D104" s="10">
+        <v>32.352941176470587</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3054,8 +3503,8 @@
       <c r="C105" s="4">
         <v>2010</v>
       </c>
-      <c r="D105" s="4">
-        <v>44</v>
+      <c r="D105" s="10">
+        <v>33.117647058823529</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3068,8 +3517,8 @@
       <c r="C106" s="4">
         <v>2017</v>
       </c>
-      <c r="D106" s="4">
-        <v>45</v>
+      <c r="D106" s="10">
+        <v>29.153846153846153</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3082,8 +3531,8 @@
       <c r="C107" s="4">
         <v>2016</v>
       </c>
-      <c r="D107" s="4">
-        <v>45</v>
+      <c r="D107" s="10">
+        <v>29.153846153846153</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3096,8 +3545,8 @@
       <c r="C108" s="4">
         <v>2015</v>
       </c>
-      <c r="D108" s="4">
-        <v>45</v>
+      <c r="D108" s="10">
+        <v>28.076923076923077</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3110,8 +3559,8 @@
       <c r="C109" s="4">
         <v>2014</v>
       </c>
-      <c r="D109" s="4">
-        <v>45</v>
+      <c r="D109" s="10">
+        <v>30.846153846153847</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3124,8 +3573,8 @@
       <c r="C110" s="4">
         <v>2013</v>
       </c>
-      <c r="D110" s="4">
-        <v>36</v>
+      <c r="D110" s="10">
+        <v>31.692307692307693</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3138,8 +3587,8 @@
       <c r="C111" s="4">
         <v>2012</v>
       </c>
-      <c r="D111" s="4">
-        <v>36</v>
+      <c r="D111" s="10">
+        <v>30.384615384615383</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3152,8 +3601,8 @@
       <c r="C112" s="4">
         <v>2011</v>
       </c>
-      <c r="D112" s="4">
-        <v>48</v>
+      <c r="D112" s="10">
+        <v>29.357142857142858</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3166,8 +3615,8 @@
       <c r="C113" s="4">
         <v>2010</v>
       </c>
-      <c r="D113" s="4">
-        <v>46</v>
+      <c r="D113" s="10">
+        <v>27.928571428571427</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3180,8 +3629,8 @@
       <c r="C114" s="4">
         <v>2017</v>
       </c>
-      <c r="D114" s="4">
-        <v>18</v>
+      <c r="D114" s="10">
+        <v>28</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3194,8 +3643,8 @@
       <c r="C115" s="4">
         <v>2016</v>
       </c>
-      <c r="D115" s="4">
-        <v>44</v>
+      <c r="D115" s="10">
+        <v>29.846153846153847</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3208,8 +3657,8 @@
       <c r="C116" s="4">
         <v>2015</v>
       </c>
-      <c r="D116" s="4">
-        <v>44</v>
+      <c r="D116" s="10">
+        <v>28.46153846153846</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3222,8 +3671,8 @@
       <c r="C117" s="4">
         <v>2014</v>
       </c>
-      <c r="D117" s="4">
-        <v>44</v>
+      <c r="D117" s="10">
+        <v>33.230769230769234</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3236,8 +3685,8 @@
       <c r="C118" s="4">
         <v>2013</v>
       </c>
-      <c r="D118" s="4">
-        <v>36</v>
+      <c r="D118" s="10">
+        <v>33.07692307692308</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3250,8 +3699,8 @@
       <c r="C119" s="4">
         <v>2012</v>
       </c>
-      <c r="D119" s="4">
-        <v>36</v>
+      <c r="D119" s="10">
+        <v>30.076923076923077</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3264,8 +3713,8 @@
       <c r="C120" s="4">
         <v>2011</v>
       </c>
-      <c r="D120" s="4">
-        <v>48</v>
+      <c r="D120" s="10">
+        <v>32.214285714285715</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3278,8 +3727,8 @@
       <c r="C121" s="4">
         <v>2010</v>
       </c>
-      <c r="D121" s="4">
-        <v>47</v>
+      <c r="D121" s="10">
+        <v>32.142857142857146</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3292,8 +3741,8 @@
       <c r="C122" s="4">
         <v>2017</v>
       </c>
-      <c r="D122" s="4">
-        <v>40</v>
+      <c r="D122" s="10">
+        <v>28.117647058823529</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3306,8 +3755,8 @@
       <c r="C123" s="4">
         <v>2016</v>
       </c>
-      <c r="D123" s="4">
-        <v>38</v>
+      <c r="D123" s="10">
+        <v>30.647058823529413</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3320,8 +3769,8 @@
       <c r="C124" s="4">
         <v>2015</v>
       </c>
-      <c r="D124" s="4">
-        <v>37</v>
+      <c r="D124" s="10">
+        <v>30.071428571428573</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3334,8 +3783,8 @@
       <c r="C125" s="4">
         <v>2014</v>
       </c>
-      <c r="D125" s="4">
-        <v>37</v>
+      <c r="D125" s="10">
+        <v>29.615384615384617</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3348,8 +3797,8 @@
       <c r="C126" s="4">
         <v>2013</v>
       </c>
-      <c r="D126" s="4">
-        <v>34</v>
+      <c r="D126" s="10">
+        <v>30.285714285714285</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3362,8 +3811,8 @@
       <c r="C127" s="4">
         <v>2012</v>
       </c>
-      <c r="D127" s="4">
-        <v>40</v>
+      <c r="D127" s="10">
+        <v>30.666666666666668</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3376,8 +3825,8 @@
       <c r="C128" s="4">
         <v>2011</v>
       </c>
-      <c r="D128" s="4">
-        <v>41</v>
+      <c r="D128" s="10">
+        <v>32.5</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3390,8 +3839,8 @@
       <c r="C129" s="4">
         <v>2010</v>
       </c>
-      <c r="D129" s="4">
-        <v>34</v>
+      <c r="D129" s="10">
+        <v>31.333333333333332</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3404,8 +3853,8 @@
       <c r="C130" s="4">
         <v>2017</v>
       </c>
-      <c r="D130" s="4">
-        <v>51</v>
+      <c r="D130" s="10">
+        <v>35.06666666666667</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3418,8 +3867,8 @@
       <c r="C131" s="4">
         <v>2016</v>
       </c>
-      <c r="D131" s="4">
-        <v>51</v>
+      <c r="D131" s="10">
+        <v>33.928571428571431</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3432,8 +3881,8 @@
       <c r="C132" s="4">
         <v>2015</v>
       </c>
-      <c r="D132" s="4">
-        <v>39</v>
+      <c r="D132" s="10">
+        <v>30.714285714285715</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3446,8 +3895,8 @@
       <c r="C133" s="4">
         <v>2014</v>
       </c>
-      <c r="D133" s="4">
-        <v>39</v>
+      <c r="D133" s="10">
+        <v>30.133333333333333</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3460,8 +3909,8 @@
       <c r="C134" s="4">
         <v>2013</v>
       </c>
-      <c r="D134" s="4">
-        <v>39</v>
+      <c r="D134" s="10">
+        <v>32.733333333333334</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3474,8 +3923,8 @@
       <c r="C135" s="4">
         <v>2012</v>
       </c>
-      <c r="D135" s="4">
-        <v>39</v>
+      <c r="D135" s="10">
+        <v>31.933333333333334</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3488,8 +3937,8 @@
       <c r="C136" s="4">
         <v>2011</v>
       </c>
-      <c r="D136" s="4">
-        <v>39</v>
+      <c r="D136" s="10">
+        <v>29.6875</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3502,8 +3951,8 @@
       <c r="C137" s="4">
         <v>2010</v>
       </c>
-      <c r="D137" s="4">
-        <v>42</v>
+      <c r="D137" s="10">
+        <v>29.75</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3516,8 +3965,8 @@
       <c r="C138" s="4">
         <v>2017</v>
       </c>
-      <c r="D138" s="4">
-        <v>37</v>
+      <c r="D138" s="10">
+        <v>29.866666666666667</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3530,8 +3979,8 @@
       <c r="C139" s="4">
         <v>2016</v>
       </c>
-      <c r="D139" s="4">
-        <v>27</v>
+      <c r="D139" s="10">
+        <v>26.6</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3544,8 +3993,8 @@
       <c r="C140" s="4">
         <v>2015</v>
       </c>
-      <c r="D140" s="4">
-        <v>40</v>
+      <c r="D140" s="10">
+        <v>26.8</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3558,8 +4007,8 @@
       <c r="C141" s="4">
         <v>2014</v>
       </c>
-      <c r="D141" s="4">
-        <v>40</v>
+      <c r="D141" s="10">
+        <v>26.071428571428573</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3572,8 +4021,8 @@
       <c r="C142" s="4">
         <v>2013</v>
       </c>
-      <c r="D142" s="4">
-        <v>40</v>
+      <c r="D142" s="10">
+        <v>27.384615384615383</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3586,8 +4035,8 @@
       <c r="C143" s="4">
         <v>2012</v>
       </c>
-      <c r="D143" s="4">
-        <v>40</v>
+      <c r="D143" s="10">
+        <v>27.692307692307693</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3600,8 +4049,8 @@
       <c r="C144" s="4">
         <v>2011</v>
       </c>
-      <c r="D144" s="4">
-        <v>40</v>
+      <c r="D144" s="10">
+        <v>29.23076923076923</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3614,8 +4063,8 @@
       <c r="C145" s="4">
         <v>2010</v>
       </c>
-      <c r="D145" s="4">
-        <v>40</v>
+      <c r="D145" s="10">
+        <v>27.153846153846153</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3628,8 +4077,8 @@
       <c r="C146" s="4">
         <v>2017</v>
       </c>
-      <c r="D146" s="4">
-        <v>32</v>
+      <c r="D146" s="10">
+        <v>33.384615384615387</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3642,8 +4091,8 @@
       <c r="C147" s="4">
         <v>2016</v>
       </c>
-      <c r="D147" s="4">
-        <v>33</v>
+      <c r="D147" s="10">
+        <v>31.53846153846154</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3656,8 +4105,8 @@
       <c r="C148" s="4">
         <v>2015</v>
       </c>
-      <c r="D148" s="4">
-        <v>35</v>
+      <c r="D148" s="10">
+        <v>30.153846153846153</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3670,8 +4119,8 @@
       <c r="C149" s="4">
         <v>2014</v>
       </c>
-      <c r="D149" s="4">
-        <v>35</v>
+      <c r="D149" s="10">
+        <v>28.923076923076923</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3684,8 +4133,8 @@
       <c r="C150" s="4">
         <v>2013</v>
       </c>
-      <c r="D150" s="4">
-        <v>36</v>
+      <c r="D150" s="10">
+        <v>33.92307692307692</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3698,8 +4147,8 @@
       <c r="C151" s="4">
         <v>2012</v>
       </c>
-      <c r="D151" s="4">
-        <v>36</v>
+      <c r="D151" s="10">
+        <v>34</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3712,8 +4161,8 @@
       <c r="C152" s="4">
         <v>2011</v>
       </c>
-      <c r="D152" s="4">
-        <v>36</v>
+      <c r="D152" s="10">
+        <v>33.153846153846153</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3726,8 +4175,8 @@
       <c r="C153" s="4">
         <v>2010</v>
       </c>
-      <c r="D153" s="4">
-        <v>32</v>
+      <c r="D153" s="10">
+        <v>34.75</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3740,8 +4189,8 @@
       <c r="C154" s="4">
         <v>2017</v>
       </c>
-      <c r="D154" s="4">
-        <v>45</v>
+      <c r="D154" s="10">
+        <v>32.75</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3754,8 +4203,8 @@
       <c r="C155" s="4">
         <v>2016</v>
       </c>
-      <c r="D155" s="4">
-        <v>43</v>
+      <c r="D155" s="10">
+        <v>37.272727272727273</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3768,8 +4217,8 @@
       <c r="C156" s="4">
         <v>2015</v>
       </c>
-      <c r="D156" s="4">
-        <v>43</v>
+      <c r="D156" s="10">
+        <v>30.8</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3782,8 +4231,8 @@
       <c r="C157" s="4">
         <v>2014</v>
       </c>
-      <c r="D157" s="4">
-        <v>37</v>
+      <c r="D157" s="10">
+        <v>34</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3796,8 +4245,8 @@
       <c r="C158" s="4">
         <v>2013</v>
       </c>
-      <c r="D158" s="4">
-        <v>40</v>
+      <c r="D158" s="10">
+        <v>30.363636363636363</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3810,8 +4259,8 @@
       <c r="C159" s="4">
         <v>2012</v>
       </c>
-      <c r="D159" s="4">
-        <v>36</v>
+      <c r="D159" s="10">
+        <v>32.272727272727273</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3824,8 +4273,8 @@
       <c r="C160" s="4">
         <v>2011</v>
       </c>
-      <c r="D160" s="4">
-        <v>40</v>
+      <c r="D160" s="10">
+        <v>29.454545454545453</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3838,8 +4287,8 @@
       <c r="C161" s="4">
         <v>2010</v>
       </c>
-      <c r="D161" s="4">
-        <v>32</v>
+      <c r="D161" s="10">
+        <v>28.545454545454547</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3852,8 +4301,8 @@
       <c r="C162" s="4">
         <v>2017</v>
       </c>
-      <c r="D162" s="4">
-        <v>39</v>
+      <c r="D162" s="10">
+        <v>35.93333333333333</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3866,8 +4315,8 @@
       <c r="C163" s="4">
         <v>2016</v>
       </c>
-      <c r="D163" s="4">
-        <v>39</v>
+      <c r="D163" s="10">
+        <v>35.466666666666669</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3880,8 +4329,8 @@
       <c r="C164" s="4">
         <v>2015</v>
       </c>
-      <c r="D164" s="4">
-        <v>36</v>
+      <c r="D164" s="10">
+        <v>38.533333333333331</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3894,8 +4343,8 @@
       <c r="C165" s="4">
         <v>2014</v>
       </c>
-      <c r="D165" s="4">
-        <v>32</v>
+      <c r="D165" s="10">
+        <v>38.5</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3908,8 +4357,8 @@
       <c r="C166" s="4">
         <v>2013</v>
       </c>
-      <c r="D166" s="4">
-        <v>30</v>
+      <c r="D166" s="10">
+        <v>37.176470588235297</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3922,8 +4371,8 @@
       <c r="C167" s="4">
         <v>2012</v>
       </c>
-      <c r="D167" s="4">
-        <v>30</v>
+      <c r="D167" s="10">
+        <v>38.133333333333333</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3936,8 +4385,8 @@
       <c r="C168" s="4">
         <v>2011</v>
       </c>
-      <c r="D168" s="4">
-        <v>23</v>
+      <c r="D168" s="10">
+        <v>33.200000000000003</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3950,8 +4399,8 @@
       <c r="C169" s="4">
         <v>2010</v>
       </c>
-      <c r="D169" s="4">
-        <v>23</v>
+      <c r="D169" s="10">
+        <v>27.571428571428573</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3964,8 +4413,8 @@
       <c r="C170" s="4">
         <v>2017</v>
       </c>
-      <c r="D170" s="4">
-        <v>45</v>
+      <c r="D170" s="10">
+        <v>28.363636363636363</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3978,8 +4427,8 @@
       <c r="C171" s="4">
         <v>2016</v>
       </c>
-      <c r="D171" s="4">
-        <v>46</v>
+      <c r="D171" s="10">
+        <v>35.916666666666664</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3992,8 +4441,8 @@
       <c r="C172" s="4">
         <v>2015</v>
       </c>
-      <c r="D172" s="4">
-        <v>46</v>
+      <c r="D172" s="10">
+        <v>32.916666666666664</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4006,8 +4455,8 @@
       <c r="C173" s="4">
         <v>2014</v>
       </c>
-      <c r="D173" s="4">
-        <v>49</v>
+      <c r="D173" s="10">
+        <v>32.166666666666664</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4020,8 +4469,8 @@
       <c r="C174" s="4">
         <v>2013</v>
       </c>
-      <c r="D174" s="4">
-        <v>50</v>
+      <c r="D174" s="10">
+        <v>30.166666666666668</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4034,8 +4483,8 @@
       <c r="C175" s="4">
         <v>2012</v>
       </c>
-      <c r="D175" s="4">
-        <v>40</v>
+      <c r="D175" s="10">
+        <v>32.416666666666664</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4048,8 +4497,8 @@
       <c r="C176" s="4">
         <v>2011</v>
       </c>
-      <c r="D176" s="4">
-        <v>48</v>
+      <c r="D176" s="10">
+        <v>30</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -4062,8 +4511,8 @@
       <c r="C177" s="4">
         <v>2010</v>
       </c>
-      <c r="D177" s="4">
-        <v>51</v>
+      <c r="D177" s="10">
+        <v>28.416666666666668</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4076,8 +4525,8 @@
       <c r="C178" s="4">
         <v>2017</v>
       </c>
-      <c r="D178" s="4">
-        <v>35</v>
+      <c r="D178" s="10">
+        <v>27.25</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4090,8 +4539,8 @@
       <c r="C179" s="4">
         <v>2016</v>
       </c>
-      <c r="D179" s="4">
-        <v>32</v>
+      <c r="D179" s="10">
+        <v>29.384615384615383</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4104,8 +4553,8 @@
       <c r="C180" s="4">
         <v>2015</v>
       </c>
-      <c r="D180" s="4">
-        <v>32</v>
+      <c r="D180" s="10">
+        <v>30.307692307692307</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4118,8 +4567,8 @@
       <c r="C181" s="4">
         <v>2014</v>
       </c>
-      <c r="D181" s="4">
-        <v>32</v>
+      <c r="D181" s="10">
+        <v>30.285714285714285</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4132,8 +4581,8 @@
       <c r="C182" s="4">
         <v>2013</v>
       </c>
-      <c r="D182" s="4">
-        <v>32</v>
+      <c r="D182" s="10">
+        <v>30.5</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4146,8 +4595,8 @@
       <c r="C183" s="4">
         <v>2012</v>
       </c>
-      <c r="D183" s="4">
-        <v>29</v>
+      <c r="D183" s="10">
+        <v>29.846153846153847</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4160,8 +4609,8 @@
       <c r="C184" s="4">
         <v>2011</v>
       </c>
-      <c r="D184" s="4">
-        <v>17</v>
+      <c r="D184" s="10">
+        <v>26.46153846153846</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4174,8 +4623,8 @@
       <c r="C185" s="4">
         <v>2010</v>
       </c>
-      <c r="D185" s="4">
-        <v>18</v>
+      <c r="D185" s="10">
+        <v>25.846153846153847</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4188,8 +4637,8 @@
       <c r="C186" s="4">
         <v>2017</v>
       </c>
-      <c r="D186" s="4">
-        <v>45</v>
+      <c r="D186" s="10">
+        <v>35.294117647058826</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4202,8 +4651,8 @@
       <c r="C187" s="4">
         <v>2016</v>
       </c>
-      <c r="D187" s="4">
-        <v>38</v>
+      <c r="D187" s="10">
+        <v>29.444444444444443</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4216,8 +4665,8 @@
       <c r="C188" s="4">
         <v>2015</v>
       </c>
-      <c r="D188" s="4">
-        <v>35</v>
+      <c r="D188" s="10">
+        <v>32.647058823529413</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4230,8 +4679,8 @@
       <c r="C189" s="4">
         <v>2014</v>
       </c>
-      <c r="D189" s="4">
-        <v>34</v>
+      <c r="D189" s="10">
+        <v>32</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4244,8 +4693,8 @@
       <c r="C190" s="4">
         <v>2013</v>
       </c>
-      <c r="D190" s="4">
-        <v>29</v>
+      <c r="D190" s="10">
+        <v>33.823529411764703</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4258,8 +4707,8 @@
       <c r="C191" s="4">
         <v>2012</v>
       </c>
-      <c r="D191" s="4">
-        <v>28</v>
+      <c r="D191" s="10">
+        <v>31.647058823529413</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4272,8 +4721,8 @@
       <c r="C192" s="4">
         <v>2011</v>
       </c>
-      <c r="D192" s="4">
-        <v>33</v>
+      <c r="D192" s="10">
+        <v>32.588235294117645</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4286,8 +4735,8 @@
       <c r="C193" s="4">
         <v>2010</v>
       </c>
-      <c r="D193" s="4">
-        <v>48</v>
+      <c r="D193" s="10">
+        <v>30.058823529411764</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4300,8 +4749,8 @@
       <c r="C194" s="4">
         <v>2017</v>
       </c>
-      <c r="D194" s="4">
-        <v>33</v>
+      <c r="D194" s="10">
+        <v>25.444444444444443</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4314,8 +4763,8 @@
       <c r="C195" s="4">
         <v>2016</v>
       </c>
-      <c r="D195" s="4">
-        <v>32</v>
+      <c r="D195" s="10">
+        <v>26.444444444444443</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4328,8 +4777,8 @@
       <c r="C196" s="4">
         <v>2015</v>
       </c>
-      <c r="D196" s="4">
-        <v>33</v>
+      <c r="D196" s="10">
+        <v>27.117647058823529</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4342,8 +4791,8 @@
       <c r="C197" s="4">
         <v>2014</v>
       </c>
-      <c r="D197" s="4">
-        <v>35</v>
+      <c r="D197" s="10">
+        <v>27.882352941176471</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4356,8 +4805,8 @@
       <c r="C198" s="4">
         <v>2013</v>
       </c>
-      <c r="D198" s="4">
-        <v>33</v>
+      <c r="D198" s="10">
+        <v>27</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4370,8 +4819,8 @@
       <c r="C199" s="4">
         <v>2012</v>
       </c>
-      <c r="D199" s="4">
-        <v>33</v>
+      <c r="D199" s="10">
+        <v>24.666666666666668</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4384,8 +4833,8 @@
       <c r="C200" s="4">
         <v>2011</v>
       </c>
-      <c r="D200" s="4">
-        <v>35</v>
+      <c r="D200" s="10">
+        <v>25.066666666666666</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4398,8 +4847,8 @@
       <c r="C201" s="4">
         <v>2010</v>
       </c>
-      <c r="D201" s="4">
-        <v>37</v>
+      <c r="D201" s="10">
+        <v>25.466666666666665</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4412,8 +4861,8 @@
       <c r="C202" s="4">
         <v>2017</v>
       </c>
-      <c r="D202" s="4">
-        <v>36</v>
+      <c r="D202" s="10">
+        <v>35.857142857142854</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4426,8 +4875,8 @@
       <c r="C203" s="4">
         <v>2016</v>
       </c>
-      <c r="D203" s="4">
-        <v>43</v>
+      <c r="D203" s="10">
+        <v>35.5</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4440,8 +4889,8 @@
       <c r="C204" s="4">
         <v>2015</v>
       </c>
-      <c r="D204" s="4">
-        <v>37</v>
+      <c r="D204" s="10">
+        <v>33</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4454,8 +4903,8 @@
       <c r="C205" s="4">
         <v>2014</v>
       </c>
-      <c r="D205" s="4">
-        <v>38</v>
+      <c r="D205" s="10">
+        <v>30.428571428571427</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4468,8 +4917,8 @@
       <c r="C206" s="4">
         <v>2013</v>
       </c>
-      <c r="D206" s="4">
-        <v>38</v>
+      <c r="D206" s="10">
+        <v>30.142857142857142</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4482,8 +4931,8 @@
       <c r="C207" s="4">
         <v>2012</v>
       </c>
-      <c r="D207" s="4">
-        <v>40</v>
+      <c r="D207" s="10">
+        <v>32.357142857142854</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4496,8 +4945,8 @@
       <c r="C208" s="4">
         <v>2011</v>
       </c>
-      <c r="D208" s="4">
-        <v>42</v>
+      <c r="D208" s="10">
+        <v>31.066666666666666</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4510,8 +4959,8 @@
       <c r="C209" s="4">
         <v>2010</v>
       </c>
-      <c r="D209" s="4">
-        <v>43</v>
+      <c r="D209" s="10">
+        <v>29.5</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4524,8 +4973,8 @@
       <c r="C210" s="4">
         <v>2017</v>
       </c>
-      <c r="D210" s="4">
-        <v>40</v>
+      <c r="D210" s="10">
+        <v>32.352941176470587</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4538,8 +4987,8 @@
       <c r="C211" s="4">
         <v>2016</v>
       </c>
-      <c r="D211" s="4">
-        <v>35</v>
+      <c r="D211" s="10">
+        <v>33.764705882352942</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4552,8 +5001,8 @@
       <c r="C212" s="4">
         <v>2015</v>
       </c>
-      <c r="D212" s="4">
-        <v>31</v>
+      <c r="D212" s="10">
+        <v>29.933333333333334</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4566,8 +5015,8 @@
       <c r="C213" s="4">
         <v>2014</v>
       </c>
-      <c r="D213" s="4">
-        <v>31</v>
+      <c r="D213" s="10">
+        <v>29.5</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4580,8 +5029,8 @@
       <c r="C214" s="4">
         <v>2013</v>
       </c>
-      <c r="D214" s="4">
-        <v>31</v>
+      <c r="D214" s="10">
+        <v>28.764705882352942</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4594,8 +5043,8 @@
       <c r="C215" s="4">
         <v>2012</v>
       </c>
-      <c r="D215" s="4">
-        <v>33</v>
+      <c r="D215" s="10">
+        <v>29.470588235294116</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4608,8 +5057,8 @@
       <c r="C216" s="4">
         <v>2011</v>
       </c>
-      <c r="D216" s="4">
-        <v>26</v>
+      <c r="D216" s="10">
+        <v>30.375</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4622,8 +5071,8 @@
       <c r="C217" s="4">
         <v>2010</v>
       </c>
-      <c r="D217" s="4">
-        <v>34</v>
+      <c r="D217" s="10">
+        <v>29.4375</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4636,8 +5085,8 @@
       <c r="C218" s="4">
         <v>2017</v>
       </c>
-      <c r="D218" s="4">
-        <v>7</v>
+      <c r="D218" s="10">
+        <v>29.666666666666668</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4650,8 +5099,8 @@
       <c r="C219" s="4">
         <v>2016</v>
       </c>
-      <c r="D219" s="4">
-        <v>6</v>
+      <c r="D219" s="10">
+        <v>31.333333333333332</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4664,8 +5113,8 @@
       <c r="C220" s="4">
         <v>2015</v>
       </c>
-      <c r="D220" s="4">
-        <v>6</v>
+      <c r="D220" s="10">
+        <v>29.214285714285715</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4678,8 +5127,8 @@
       <c r="C221" s="4">
         <v>2014</v>
       </c>
-      <c r="D221" s="4">
-        <v>6</v>
+      <c r="D221" s="10">
+        <v>30.071428571428573</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -4692,8 +5141,8 @@
       <c r="C222" s="4">
         <v>2013</v>
       </c>
-      <c r="D222" s="4">
-        <v>26</v>
+      <c r="D222" s="10">
+        <v>32</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4706,8 +5155,8 @@
       <c r="C223" s="4">
         <v>2012</v>
       </c>
-      <c r="D223" s="4">
-        <v>26</v>
+      <c r="D223" s="10">
+        <v>29.5</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4720,8 +5169,8 @@
       <c r="C224" s="4">
         <v>2011</v>
       </c>
-      <c r="D224" s="4">
-        <v>35</v>
+      <c r="D224" s="10">
+        <v>32.285714285714285</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4734,8 +5183,8 @@
       <c r="C225" s="4">
         <v>2010</v>
       </c>
-      <c r="D225" s="4">
-        <v>38</v>
+      <c r="D225" s="10">
+        <v>33.666666666666664</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -4748,8 +5197,8 @@
       <c r="C226" s="4">
         <v>2017</v>
       </c>
-      <c r="D226" s="4">
-        <v>36</v>
+      <c r="D226" s="10">
+        <v>29.611111111111111</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4762,8 +5211,8 @@
       <c r="C227" s="4">
         <v>2016</v>
       </c>
-      <c r="D227" s="4">
-        <v>36</v>
+      <c r="D227" s="10">
+        <v>29.352941176470587</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4776,8 +5225,8 @@
       <c r="C228" s="4">
         <v>2015</v>
       </c>
-      <c r="D228" s="4">
-        <v>33</v>
+      <c r="D228" s="10">
+        <v>27.941176470588236</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4790,8 +5239,8 @@
       <c r="C229" s="4">
         <v>2014</v>
       </c>
-      <c r="D229" s="4">
-        <v>47</v>
+      <c r="D229" s="10">
+        <v>28.588235294117649</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4804,8 +5253,8 @@
       <c r="C230" s="4">
         <v>2013</v>
       </c>
-      <c r="D230" s="4">
-        <v>40</v>
+      <c r="D230" s="10">
+        <v>27.529411764705884</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4818,8 +5267,8 @@
       <c r="C231" s="4">
         <v>2012</v>
       </c>
-      <c r="D231" s="4">
-        <v>45</v>
+      <c r="D231" s="10">
+        <v>29.294117647058822</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4832,8 +5281,8 @@
       <c r="C232" s="4">
         <v>2011</v>
       </c>
-      <c r="D232" s="4">
-        <v>45</v>
+      <c r="D232" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4846,8 +5295,8 @@
       <c r="C233" s="4">
         <v>2010</v>
       </c>
-      <c r="D233" s="4">
-        <v>45</v>
+      <c r="D233" s="10">
+        <v>26.117647058823529</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4860,8 +5309,8 @@
       <c r="C234" s="4">
         <v>2017</v>
       </c>
-      <c r="D234" s="4">
-        <v>37</v>
+      <c r="D234" s="10">
+        <v>26.25</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4874,8 +5323,8 @@
       <c r="C235" s="4">
         <v>2016</v>
       </c>
-      <c r="D235" s="4">
-        <v>29</v>
+      <c r="D235" s="10">
+        <v>27.5</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4888,8 +5337,8 @@
       <c r="C236" s="4">
         <v>2015</v>
       </c>
-      <c r="D236" s="4">
-        <v>29</v>
+      <c r="D236" s="10">
+        <v>26.5</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4902,8 +5351,8 @@
       <c r="C237" s="4">
         <v>2014</v>
       </c>
-      <c r="D237" s="4">
-        <v>29</v>
+      <c r="D237" s="10">
+        <v>25.277777777777779</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -4916,8 +5365,8 @@
       <c r="C238" s="4">
         <v>2013</v>
       </c>
-      <c r="D238" s="4">
-        <v>9</v>
+      <c r="D238" s="10">
+        <v>22.944444444444443</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -4930,8 +5379,8 @@
       <c r="C239" s="4">
         <v>2012</v>
       </c>
-      <c r="D239" s="4">
-        <v>9</v>
+      <c r="D239" s="10">
+        <v>24.333333333333332</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -4944,8 +5393,8 @@
       <c r="C240" s="4">
         <v>2011</v>
       </c>
-      <c r="D240" s="4">
-        <v>9</v>
+      <c r="D240" s="10">
+        <v>25.705882352941178</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -4958,8 +5407,8 @@
       <c r="C241" s="4">
         <v>2010</v>
       </c>
-      <c r="D241" s="4">
-        <v>5</v>
+      <c r="D241" s="10">
+        <v>24.6875</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -4972,8 +5421,8 @@
       <c r="C242" s="4">
         <v>2017</v>
       </c>
-      <c r="D242" s="4">
-        <v>43</v>
+      <c r="D242" s="10">
+        <v>30.46153846153846</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -4986,8 +5435,8 @@
       <c r="C243" s="4">
         <v>2016</v>
       </c>
-      <c r="D243" s="4">
-        <v>43</v>
+      <c r="D243" s="10">
+        <v>28</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -5000,8 +5449,8 @@
       <c r="C244" s="4">
         <v>2015</v>
       </c>
-      <c r="D244" s="4">
-        <v>43</v>
+      <c r="D244" s="10">
+        <v>28.307692307692307</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -5014,8 +5463,8 @@
       <c r="C245" s="4">
         <v>2014</v>
       </c>
-      <c r="D245" s="4">
-        <v>38</v>
+      <c r="D245" s="10">
+        <v>31.615384615384617</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -5028,8 +5477,8 @@
       <c r="C246" s="4">
         <v>2013</v>
       </c>
-      <c r="D246" s="4">
-        <v>37</v>
+      <c r="D246" s="10">
+        <v>32.615384615384613</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -5042,8 +5491,8 @@
       <c r="C247" s="4">
         <v>2012</v>
       </c>
-      <c r="D247" s="4">
-        <v>38</v>
+      <c r="D247" s="10">
+        <v>28.416666666666668</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -5056,8 +5505,8 @@
       <c r="C248" s="4">
         <v>2011</v>
       </c>
-      <c r="D248" s="4">
-        <v>40</v>
+      <c r="D248" s="10">
+        <v>26.083333333333332</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -5070,8 +5519,8 @@
       <c r="C249" s="4">
         <v>2010</v>
       </c>
-      <c r="D249" s="4">
-        <v>42</v>
+      <c r="D249" s="10">
+        <v>25.5</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -5084,8 +5533,8 @@
       <c r="C250" s="4">
         <v>2017</v>
       </c>
-      <c r="D250" s="4">
-        <v>43</v>
+      <c r="D250" s="10">
+        <v>28.25</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -5098,8 +5547,8 @@
       <c r="C251" s="4">
         <v>2016</v>
       </c>
-      <c r="D251" s="4">
-        <v>42</v>
+      <c r="D251" s="10">
+        <v>27.2</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -5112,8 +5561,8 @@
       <c r="C252" s="4">
         <v>2015</v>
       </c>
-      <c r="D252" s="4">
-        <v>40</v>
+      <c r="D252" s="10">
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -5126,8 +5575,8 @@
       <c r="C253" s="4">
         <v>2014</v>
       </c>
-      <c r="D253" s="4">
-        <v>37</v>
+      <c r="D253" s="10">
+        <v>26.466666666666665</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -5140,8 +5589,8 @@
       <c r="C254" s="4">
         <v>2013</v>
       </c>
-      <c r="D254" s="4">
-        <v>37</v>
+      <c r="D254" s="10">
+        <v>26.5625</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -5154,8 +5603,8 @@
       <c r="C255" s="4">
         <v>2012</v>
       </c>
-      <c r="D255" s="4">
-        <v>36</v>
+      <c r="D255" s="10">
+        <v>27.066666666666666</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5168,8 +5617,8 @@
       <c r="C256" s="4">
         <v>2011</v>
       </c>
-      <c r="D256" s="4">
-        <v>40</v>
+      <c r="D256" s="10">
+        <v>27.2</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5182,8 +5631,8 @@
       <c r="C257" s="4">
         <v>2010</v>
       </c>
-      <c r="D257" s="4">
-        <v>26</v>
+      <c r="D257" s="10">
+        <v>27.066666666666666</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5196,8 +5645,8 @@
       <c r="C258" s="4">
         <v>2017</v>
       </c>
-      <c r="D258" s="4">
-        <v>37</v>
+      <c r="D258" s="10">
+        <v>31.1875</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5210,8 +5659,8 @@
       <c r="C259" s="4">
         <v>2016</v>
       </c>
-      <c r="D259" s="4">
-        <v>36</v>
+      <c r="D259" s="10">
+        <v>29.8125</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5224,8 +5673,8 @@
       <c r="C260" s="4">
         <v>2015</v>
       </c>
-      <c r="D260" s="4">
-        <v>40</v>
+      <c r="D260" s="10">
+        <v>34.06666666666667</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5238,8 +5687,8 @@
       <c r="C261" s="4">
         <v>2014</v>
       </c>
-      <c r="D261" s="4">
-        <v>38</v>
+      <c r="D261" s="10">
+        <v>32.866666666666667</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5252,8 +5701,8 @@
       <c r="C262" s="4">
         <v>2013</v>
       </c>
-      <c r="D262" s="4">
-        <v>40</v>
+      <c r="D262" s="10">
+        <v>31.9375</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5266,8 +5715,8 @@
       <c r="C263" s="4">
         <v>2012</v>
       </c>
-      <c r="D263" s="4">
-        <v>38</v>
+      <c r="D263" s="10">
+        <v>30.6875</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5280,8 +5729,8 @@
       <c r="C264" s="4">
         <v>2011</v>
       </c>
-      <c r="D264" s="4">
-        <v>38</v>
+      <c r="D264" s="10">
+        <v>31.733333333333334</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5294,8 +5743,8 @@
       <c r="C265" s="4">
         <v>2010</v>
       </c>
-      <c r="D265" s="4">
-        <v>33</v>
+      <c r="D265" s="10">
+        <v>29.066666666666666</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5308,8 +5757,8 @@
       <c r="C266" s="4">
         <v>2017</v>
       </c>
-      <c r="D266" s="4">
-        <v>32</v>
+      <c r="D266" s="10">
+        <v>28.266666666666666</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5322,8 +5771,8 @@
       <c r="C267" s="4">
         <v>2016</v>
       </c>
-      <c r="D267" s="4">
-        <v>40</v>
+      <c r="D267" s="10">
+        <v>25.666666666666668</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5336,8 +5785,8 @@
       <c r="C268" s="4">
         <v>2015</v>
       </c>
-      <c r="D268" s="4">
-        <v>43</v>
+      <c r="D268" s="10">
+        <v>29.5625</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5350,8 +5799,8 @@
       <c r="C269" s="4">
         <v>2014</v>
       </c>
-      <c r="D269" s="4">
-        <v>37</v>
+      <c r="D269" s="10">
+        <v>26.375</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5364,8 +5813,8 @@
       <c r="C270" s="4">
         <v>2013</v>
       </c>
-      <c r="D270" s="4">
-        <v>26</v>
+      <c r="D270" s="10">
+        <v>24.3125</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -5378,8 +5827,8 @@
       <c r="C271" s="4">
         <v>2012</v>
       </c>
-      <c r="D271" s="4">
-        <v>32</v>
+      <c r="D271" s="10">
+        <v>27.1875</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5392,8 +5841,8 @@
       <c r="C272" s="4">
         <v>2011</v>
       </c>
-      <c r="D272" s="4">
-        <v>30</v>
+      <c r="D272" s="10">
+        <v>26.625</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5406,8 +5855,8 @@
       <c r="C273" s="4">
         <v>2010</v>
       </c>
-      <c r="D273" s="4">
-        <v>22</v>
+      <c r="D273" s="10">
+        <v>25.6875</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5420,8 +5869,8 @@
       <c r="C274" s="4">
         <v>2017</v>
       </c>
-      <c r="D274" s="4">
-        <v>22</v>
+      <c r="D274" s="10">
+        <v>28.1875</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5434,8 +5883,8 @@
       <c r="C275" s="4">
         <v>2016</v>
       </c>
-      <c r="D275" s="4">
-        <v>27</v>
+      <c r="D275" s="10">
+        <v>26.529411764705884</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5448,8 +5897,8 @@
       <c r="C276" s="4">
         <v>2015</v>
       </c>
-      <c r="D276" s="4">
-        <v>19</v>
+      <c r="D276" s="10">
+        <v>24.529411764705884</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5462,8 +5911,8 @@
       <c r="C277" s="4">
         <v>2014</v>
       </c>
-      <c r="D277" s="4">
-        <v>21</v>
+      <c r="D277" s="10">
+        <v>23.470588235294116</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -5476,8 +5925,8 @@
       <c r="C278" s="4">
         <v>2013</v>
       </c>
-      <c r="D278" s="4">
-        <v>20</v>
+      <c r="D278" s="10">
+        <v>24.941176470588236</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5490,8 +5939,8 @@
       <c r="C279" s="4">
         <v>2012</v>
       </c>
-      <c r="D279" s="4">
-        <v>25</v>
+      <c r="D279" s="10">
+        <v>27.058823529411764</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -5504,8 +5953,8 @@
       <c r="C280" s="4">
         <v>2011</v>
       </c>
-      <c r="D280" s="4">
-        <v>56</v>
+      <c r="D280" s="10">
+        <v>26.941176470588236</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -5518,8 +5967,8 @@
       <c r="C281" s="4">
         <v>2010</v>
       </c>
-      <c r="D281" s="4">
-        <v>56</v>
+      <c r="D281" s="10">
+        <v>26.647058823529413</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5532,8 +5981,8 @@
       <c r="C282" s="4">
         <v>2017</v>
       </c>
-      <c r="D282" s="4">
-        <v>49</v>
+      <c r="D282" s="10">
+        <v>30.142857142857142</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -5546,8 +5995,8 @@
       <c r="C283" s="4">
         <v>2016</v>
       </c>
-      <c r="D283" s="4">
-        <v>28</v>
+      <c r="D283" s="10">
+        <v>23.357142857142858</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -5560,8 +6009,8 @@
       <c r="C284" s="4">
         <v>2015</v>
       </c>
-      <c r="D284" s="4">
-        <v>28</v>
+      <c r="D284" s="10">
+        <v>25.46153846153846</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -5574,8 +6023,8 @@
       <c r="C285" s="4">
         <v>2014</v>
       </c>
-      <c r="D285" s="4">
-        <v>28</v>
+      <c r="D285" s="10">
+        <v>27.714285714285715</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -5588,8 +6037,8 @@
       <c r="C286" s="4">
         <v>2013</v>
       </c>
-      <c r="D286" s="4">
-        <v>8</v>
+      <c r="D286" s="10">
+        <v>24.846153846153847</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -5602,8 +6051,8 @@
       <c r="C287" s="4">
         <v>2012</v>
       </c>
-      <c r="D287" s="4">
-        <v>24</v>
+      <c r="D287" s="10">
+        <v>25.23076923076923</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -5616,8 +6065,8 @@
       <c r="C288" s="4">
         <v>2011</v>
       </c>
-      <c r="D288" s="4">
-        <v>30</v>
+      <c r="D288" s="10">
+        <v>25.384615384615383</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5630,8 +6079,8 @@
       <c r="C289" s="4">
         <v>2010</v>
       </c>
-      <c r="D289" s="4">
-        <v>8</v>
+      <c r="D289" s="10">
+        <v>26.846153846153847</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -5644,8 +6093,8 @@
       <c r="C290" s="4">
         <v>2017</v>
       </c>
-      <c r="D290" s="4">
-        <v>35</v>
+      <c r="D290" s="10">
+        <v>27.882352941176471</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5658,8 +6107,8 @@
       <c r="C291" s="4">
         <v>2016</v>
       </c>
-      <c r="D291" s="4">
-        <v>23</v>
+      <c r="D291" s="10">
+        <v>26.411764705882351</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5672,8 +6121,8 @@
       <c r="C292" s="4">
         <v>2015</v>
       </c>
-      <c r="D292" s="4">
-        <v>29</v>
+      <c r="D292" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -5686,8 +6135,8 @@
       <c r="C293" s="4">
         <v>2014</v>
       </c>
-      <c r="D293" s="4">
-        <v>13</v>
+      <c r="D293" s="10">
+        <v>25.375</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -5700,8 +6149,8 @@
       <c r="C294" s="4">
         <v>2013</v>
       </c>
-      <c r="D294" s="4">
-        <v>29</v>
+      <c r="D294" s="10">
+        <v>24.647058823529413</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5714,8 +6163,8 @@
       <c r="C295" s="4">
         <v>2012</v>
       </c>
-      <c r="D295" s="4">
-        <v>22</v>
+      <c r="D295" s="10">
+        <v>24.882352941176471</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -5728,8 +6177,8 @@
       <c r="C296" s="4">
         <v>2011</v>
       </c>
-      <c r="D296" s="4">
-        <v>22</v>
+      <c r="D296" s="10">
+        <v>22.705882352941178</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -5742,8 +6191,8 @@
       <c r="C297" s="4">
         <v>2010</v>
       </c>
-      <c r="D297" s="4">
-        <v>22</v>
+      <c r="D297" s="10">
+        <v>25.0625</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5756,8 +6205,8 @@
       <c r="C298" s="4">
         <v>2017</v>
       </c>
-      <c r="D298" s="4">
-        <v>58</v>
+      <c r="D298" s="10">
+        <v>27.266666666666666</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5770,8 +6219,8 @@
       <c r="C299" s="4">
         <v>2016</v>
       </c>
-      <c r="D299" s="4">
-        <v>43</v>
+      <c r="D299" s="10">
+        <v>26.866666666666667</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5784,8 +6233,8 @@
       <c r="C300" s="4">
         <v>2015</v>
       </c>
-      <c r="D300" s="4">
-        <v>40</v>
+      <c r="D300" s="10">
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5798,8 +6247,8 @@
       <c r="C301" s="4">
         <v>2014</v>
       </c>
-      <c r="D301" s="4">
-        <v>41</v>
+      <c r="D301" s="10">
+        <v>27.133333333333333</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -5812,8 +6261,8 @@
       <c r="C302" s="4">
         <v>2013</v>
       </c>
-      <c r="D302" s="4">
-        <v>40</v>
+      <c r="D302" s="10">
+        <v>26.133333333333333</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -5826,8 +6275,8 @@
       <c r="C303" s="4">
         <v>2012</v>
       </c>
-      <c r="D303" s="4">
-        <v>35</v>
+      <c r="D303" s="10">
+        <v>27.666666666666668</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5840,8 +6289,8 @@
       <c r="C304" s="4">
         <v>2011</v>
       </c>
-      <c r="D304" s="4">
-        <v>36</v>
+      <c r="D304" s="10">
+        <v>27.25</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -5854,8 +6303,8 @@
       <c r="C305" s="4">
         <v>2010</v>
       </c>
-      <c r="D305" s="4">
-        <v>36</v>
+      <c r="D305" s="10">
+        <v>27.6875</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -5868,8 +6317,8 @@
       <c r="C306" s="4">
         <v>2017</v>
       </c>
-      <c r="D306" s="4">
-        <v>38</v>
+      <c r="D306" s="10">
+        <v>24.625</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -5882,8 +6331,8 @@
       <c r="C307" s="4">
         <v>2016</v>
       </c>
-      <c r="D307" s="4">
-        <v>38</v>
+      <c r="D307" s="10">
+        <v>28.3125</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -5896,8 +6345,8 @@
       <c r="C308" s="4">
         <v>2015</v>
       </c>
-      <c r="D308" s="4">
-        <v>38</v>
+      <c r="D308" s="10">
+        <v>28.5625</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -5910,8 +6359,8 @@
       <c r="C309" s="4">
         <v>2014</v>
       </c>
-      <c r="D309" s="4">
-        <v>38</v>
+      <c r="D309" s="10">
+        <v>24.733333333333334</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -5924,8 +6373,8 @@
       <c r="C310" s="4">
         <v>2013</v>
       </c>
-      <c r="D310" s="4">
-        <v>38</v>
+      <c r="D310" s="10">
+        <v>24.666666666666668</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -5938,8 +6387,8 @@
       <c r="C311" s="4">
         <v>2012</v>
       </c>
-      <c r="D311" s="4">
-        <v>38</v>
+      <c r="D311" s="10">
+        <v>25.23076923076923</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -5952,8 +6401,8 @@
       <c r="C312" s="4">
         <v>2011</v>
       </c>
-      <c r="D312" s="4">
-        <v>29</v>
+      <c r="D312" s="10">
+        <v>22.076923076923077</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -5966,8 +6415,8 @@
       <c r="C313" s="4">
         <v>2010</v>
       </c>
-      <c r="D313" s="4">
-        <v>29</v>
+      <c r="D313" s="10">
+        <v>19.642857142857142</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -5980,8 +6429,8 @@
       <c r="C314" s="4">
         <v>2017</v>
       </c>
-      <c r="D314" s="4">
-        <v>37</v>
+      <c r="D314" s="10">
+        <v>20.666666666666668</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -5994,8 +6443,8 @@
       <c r="C315" s="4">
         <v>2016</v>
       </c>
-      <c r="D315" s="4">
-        <v>36</v>
+      <c r="D315" s="10">
+        <v>18.583333333333332</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -6008,8 +6457,8 @@
       <c r="C316" s="4">
         <v>2015</v>
       </c>
-      <c r="D316" s="4">
-        <v>34</v>
+      <c r="D316" s="10">
+        <v>18.083333333333332</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -6022,8 +6471,8 @@
       <c r="C317" s="4">
         <v>2014</v>
       </c>
-      <c r="D317" s="4">
-        <v>36</v>
+      <c r="D317" s="10">
+        <v>15.75</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -6036,8 +6485,8 @@
       <c r="C318" s="4">
         <v>2013</v>
       </c>
-      <c r="D318" s="4">
-        <v>39</v>
+      <c r="D318" s="10">
+        <v>18.25</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -6050,8 +6499,8 @@
       <c r="C319" s="4">
         <v>2012</v>
       </c>
-      <c r="D319" s="4">
-        <v>36</v>
+      <c r="D319" s="10">
+        <v>18.833333333333332</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -6064,8 +6513,8 @@
       <c r="C320" s="4">
         <v>2011</v>
       </c>
-      <c r="D320" s="4">
-        <v>37</v>
+      <c r="D320" s="10">
+        <v>23.083333333333332</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -6078,8 +6527,8 @@
       <c r="C321" s="4">
         <v>2010</v>
       </c>
-      <c r="D321" s="4">
-        <v>41</v>
+      <c r="D321" s="10">
+        <v>27.90909090909091</v>
       </c>
     </row>
   </sheetData>
@@ -6137,4 +6586,152 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C6F3B2-06DE-4146-9AFE-A3DA4CECAD04}">
+  <dimension ref="A2:G5"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.21940000000000001</v>
+      </c>
+      <c r="C4" s="12">
+        <v>4.5879999999999997E-2</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.107128</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.33167999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="12">
+        <v>-413.01769999999999</v>
+      </c>
+      <c r="C5" s="12">
+        <v>92.389709999999994</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F5" s="12">
+        <v>-639.08720000000005</v>
+      </c>
+      <c r="G5" s="12">
+        <v>-186.94829999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2B1946-52C9-4DAD-BFC2-48E6E3AA86DF}">
+  <dimension ref="C6:C13"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>